--- a/reports/resnet18_23_no_MMTM/prediction/4/prediction_test_4.xlsx
+++ b/reports/resnet18_23_no_MMTM/prediction/4/prediction_test_4.xlsx
@@ -478,7 +478,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
